--- a/tests/client/export/1object/expected.xlsx
+++ b/tests/client/export/1object/expected.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PeterAlbert\Desktop\test\1object\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AF5E0B-C797-45C9-86BA-1E465B4CEA4A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3BA8C9-571F-42D7-9692-BE927F1CC3D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{CF41F8A1-61A1-4F07-9B27-8210A5435265}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -53,19 +53,19 @@
     <t>Project data</t>
   </si>
   <si>
+    <t>Integer:</t>
+  </si>
+  <si>
+    <t>Float:</t>
+  </si>
+  <si>
+    <t>Boolean:</t>
+  </si>
+  <si>
     <t>pid1</t>
   </si>
   <si>
     <t>Project Name</t>
-  </si>
-  <si>
-    <t>Integer:</t>
-  </si>
-  <si>
-    <t>Float:</t>
-  </si>
-  <si>
-    <t>Boolean:</t>
   </si>
 </sst>
 </file>
@@ -461,8 +461,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.81640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -472,52 +472,51 @@
       <c r="B1" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3">
-        <v>114325352</v>
+      <c r="A5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>1.14325352E8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
-        <f>-143242.25</f>
+      <c r="A6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="n">
         <v>-143242.25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
+      <c r="A7" t="s" s="0">
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B9" s="4">
-        <v>43466</v>
+      <c r="B9" s="4" t="n">
+        <v>43465.958333333336</v>
       </c>
     </row>
   </sheetData>
@@ -526,6 +525,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005FFEF7BA7E574A46AFB74A56224B0982" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="52864cb1d85b36b33cfb7afe4e9ef98d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72b4710f-9dac-42ee-90a5-eb867dbd68a1" xmlns:ns3="23c7b6b5-bdb0-4ac9-8e3d-579e161add45" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c21c5333fca5eb86a4b0907462b52821" ns2:_="" ns3:_="">
     <xsd:import namespace="72b4710f-9dac-42ee-90a5-eb867dbd68a1"/>
@@ -696,12 +701,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -712,6 +711,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCCBF7E0-111D-410E-B77E-B45DFE4B5E1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="23c7b6b5-bdb0-4ac9-8e3d-579e161add45"/>
+    <ds:schemaRef ds:uri="72b4710f-9dac-42ee-90a5-eb867dbd68a1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E917516-6907-4B03-AE45-2F84105D280F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -730,23 +746,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCCBF7E0-111D-410E-B77E-B45DFE4B5E1E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="23c7b6b5-bdb0-4ac9-8e3d-579e161add45"/>
-    <ds:schemaRef ds:uri="72b4710f-9dac-42ee-90a5-eb867dbd68a1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{605D215D-855A-46D3-AF6E-D5A3499E903D}">
   <ds:schemaRefs>
